--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_EBD0A9DEE3266B09A28FDE6AFE479609B0EBD21A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E20D96DA-812F-9C46-B59C-356C4821EE8F}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unedo365-my.sharepoint.com/personal/welvira_flog_uned_es/Documents/2020-CIFE/0paper_WAPA/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12120" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Full1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,42 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
-    <t>- 0.88 st</t>
+    <t>Stimuli</t>
   </si>
   <si>
-    <t>0.00 st</t>
+    <t>Answer</t>
   </si>
   <si>
-    <t>0.85 st</t>
+    <t>nAnswers</t>
   </si>
   <si>
-    <t>1.77 st</t>
+    <t>"Conf question" responses</t>
   </si>
   <si>
-    <t>2,66 st</t>
-  </si>
-  <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>stimuli</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>value</t>
+    <t>"Info question" responses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,17 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,143 +355,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>31.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>43.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>68.7</v>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>